--- a/data/1542360094.95.xlsx
+++ b/data/1542360094.95.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="1542360094.95" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="51">
   <si>
     <t>歌曲名</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -159,13 +159,28 @@
   </si>
   <si>
     <t>作家45</t>
+  </si>
+  <si>
+    <t>http://files.haochang.tv/file/beat/lyric/20181116/f022c06cd6b2960271717cdb6ec1dfc18.txt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:80/data/a89f8523a6724a915c6b2038c928b342.zrce</t>
+  </si>
+  <si>
+    <t>http://localhost:80/data/a89f8523a6724a915c6b2038c928b342.zrce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:80/data/a89f8523a6724a915c6b2038c928b342.zrce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +341,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -624,7 +648,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,13 +775,19 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -783,6 +813,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1100,13 +1131,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="54.375" customWidth="1"/>
+    <col min="3" max="3" width="87.625" customWidth="1"/>
+    <col min="4" max="4" width="73.75" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1133,8 +1167,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1150,8 +1184,8 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1167,8 +1201,8 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1184,8 +1218,8 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -1201,8 +1235,8 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -1218,8 +1252,8 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1235,8 +1269,8 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -1252,8 +1286,8 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -1269,8 +1303,8 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -1286,8 +1320,8 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -1303,8 +1337,8 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -1320,8 +1354,8 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -1337,8 +1371,8 @@
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -1354,8 +1388,8 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -1371,8 +1405,8 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1388,8 +1422,8 @@
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -1405,8 +1439,8 @@
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1422,8 +1456,8 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1439,8 +1473,8 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -1456,8 +1490,8 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
-        <v>1</v>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1473,8 +1507,8 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1490,8 +1524,8 @@
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>1</v>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -1507,8 +1541,8 @@
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
-        <v>1</v>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -1524,8 +1558,8 @@
       <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -1541,8 +1575,8 @@
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
-        <v>1</v>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -1558,8 +1592,8 @@
       <c r="B27" t="s">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -1575,8 +1609,8 @@
       <c r="B28" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -1592,8 +1626,8 @@
       <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -1609,8 +1643,8 @@
       <c r="B30" t="s">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -1626,8 +1660,8 @@
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>1</v>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -1643,8 +1677,8 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
-        <v>1</v>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -1660,8 +1694,8 @@
       <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C33" t="s">
-        <v>1</v>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -1677,8 +1711,8 @@
       <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
-        <v>1</v>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -1694,8 +1728,8 @@
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" t="s">
-        <v>1</v>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -1711,8 +1745,8 @@
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
-        <v>1</v>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -1728,14 +1762,14 @@
       <c r="B37" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
+      <c r="C37" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>1</v>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1745,8 +1779,8 @@
       <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
-        <v>1</v>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1762,8 +1796,8 @@
       <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C39" t="s">
-        <v>1</v>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1779,8 +1813,8 @@
       <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="C40" t="s">
-        <v>1</v>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -1796,8 +1830,8 @@
       <c r="B41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" t="s">
-        <v>1</v>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -1813,8 +1847,8 @@
       <c r="B42" t="s">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>1</v>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -1830,8 +1864,8 @@
       <c r="B43" t="s">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>1</v>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -1847,8 +1881,8 @@
       <c r="B44" t="s">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
-        <v>1</v>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -1864,8 +1898,8 @@
       <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C45" t="s">
-        <v>1</v>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -1881,8 +1915,8 @@
       <c r="B46" t="s">
         <v>0</v>
       </c>
-      <c r="C46" t="s">
-        <v>1</v>
+      <c r="C46" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -1893,6 +1927,54 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E37" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C20" r:id="rId10"/>
+    <hyperlink ref="C23" r:id="rId11"/>
+    <hyperlink ref="C26" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="C32" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="C38" r:id="rId16"/>
+    <hyperlink ref="C41" r:id="rId17"/>
+    <hyperlink ref="C44" r:id="rId18"/>
+    <hyperlink ref="C6" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="C18" r:id="rId23"/>
+    <hyperlink ref="C21" r:id="rId24"/>
+    <hyperlink ref="C24" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C30" r:id="rId27"/>
+    <hyperlink ref="C33" r:id="rId28"/>
+    <hyperlink ref="C36" r:id="rId29"/>
+    <hyperlink ref="C39" r:id="rId30"/>
+    <hyperlink ref="C42" r:id="rId31"/>
+    <hyperlink ref="C45" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="C10" r:id="rId34"/>
+    <hyperlink ref="C13" r:id="rId35"/>
+    <hyperlink ref="C16" r:id="rId36"/>
+    <hyperlink ref="C19" r:id="rId37"/>
+    <hyperlink ref="C22" r:id="rId38"/>
+    <hyperlink ref="C25" r:id="rId39"/>
+    <hyperlink ref="C28" r:id="rId40"/>
+    <hyperlink ref="C31" r:id="rId41"/>
+    <hyperlink ref="C34" r:id="rId42"/>
+    <hyperlink ref="C37" r:id="rId43"/>
+    <hyperlink ref="C40" r:id="rId44"/>
+    <hyperlink ref="C43" r:id="rId45"/>
+    <hyperlink ref="C46" r:id="rId46"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>